--- a/dataanalysis/data/predictions/1600/09111504_1505.xlsx
+++ b/dataanalysis/data/predictions/1600/09111504_1505.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="153">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-11</t>
   </si>
   <si>
@@ -470,12 +473,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -833,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH74"/>
+  <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,19 +939,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -972,7 +972,7 @@
         <v>92430.96000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1013,8 +1013,23 @@
       <c r="W2">
         <v>2.96</v>
       </c>
+      <c r="X2">
+        <v>-1.02</v>
+      </c>
+      <c r="Y2">
+        <v>13.15</v>
+      </c>
+      <c r="Z2">
+        <v>3.38</v>
+      </c>
       <c r="AC2" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -1022,22 +1037,25 @@
       <c r="AG2">
         <v>19.59683990478516</v>
       </c>
-      <c r="AH2" t="s">
-        <v>152</v>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300014</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2.21</v>
@@ -1055,7 +1073,7 @@
         <v>753103.16</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1096,8 +1114,23 @@
       <c r="W3">
         <v>0.33</v>
       </c>
+      <c r="X3">
+        <v>2.94</v>
+      </c>
+      <c r="Y3">
+        <v>76.98</v>
+      </c>
+      <c r="Z3">
+        <v>7.36</v>
+      </c>
       <c r="AC3" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1105,22 +1138,25 @@
       <c r="AG3">
         <v>9.834280014038086</v>
       </c>
-      <c r="AH3" t="s">
-        <v>153</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300043</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-0.86</v>
@@ -1138,7 +1174,7 @@
         <v>89630.03</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1179,8 +1215,23 @@
       <c r="W4">
         <v>-0.83</v>
       </c>
+      <c r="X4">
+        <v>-3.31</v>
+      </c>
+      <c r="Y4">
+        <v>5.76</v>
+      </c>
+      <c r="Z4">
+        <v>0.35</v>
+      </c>
       <c r="AC4" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1188,22 +1239,25 @@
       <c r="AG4">
         <v>4.133704662322998</v>
       </c>
-      <c r="AH4" t="s">
-        <v>153</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>6.54</v>
@@ -1221,7 +1275,7 @@
         <v>149178.21</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K5">
         <v>11</v>
@@ -1262,8 +1316,23 @@
       <c r="W5">
         <v>0.22</v>
       </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>70.2</v>
+      </c>
+      <c r="Z5">
+        <v>1.42</v>
+      </c>
       <c r="AC5" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1271,22 +1340,25 @@
       <c r="AG5">
         <v>-1.445993542671204</v>
       </c>
-      <c r="AH5" t="s">
-        <v>153</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300068</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>2.79</v>
@@ -1304,7 +1376,7 @@
         <v>420665.6</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1345,8 +1417,23 @@
       <c r="W6">
         <v>-1.22</v>
       </c>
+      <c r="X6">
+        <v>-5.19</v>
+      </c>
+      <c r="Y6">
+        <v>21</v>
+      </c>
+      <c r="Z6">
+        <v>-0.1</v>
+      </c>
       <c r="AC6" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1354,22 +1441,25 @@
       <c r="AG6">
         <v>8.692255973815918</v>
       </c>
-      <c r="AH6" t="s">
-        <v>153</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300092</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-0.47</v>
@@ -1387,7 +1477,7 @@
         <v>71592.77</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1428,8 +1518,23 @@
       <c r="W7">
         <v>-0.29</v>
       </c>
+      <c r="X7">
+        <v>-4.29</v>
+      </c>
+      <c r="Y7">
+        <v>18.93</v>
+      </c>
+      <c r="Z7">
+        <v>0.37</v>
+      </c>
       <c r="AC7" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1437,22 +1542,25 @@
       <c r="AG7">
         <v>-1.758509159088135</v>
       </c>
-      <c r="AH7" t="s">
-        <v>153</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300139</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-2.15</v>
@@ -1470,7 +1578,7 @@
         <v>223743.31</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1511,8 +1619,23 @@
       <c r="W8">
         <v>-1.43</v>
       </c>
+      <c r="X8">
+        <v>3.65</v>
+      </c>
+      <c r="Y8">
+        <v>29.78</v>
+      </c>
+      <c r="Z8">
+        <v>11.04</v>
+      </c>
       <c r="AC8" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1520,22 +1643,25 @@
       <c r="AG8">
         <v>52.26599884033203</v>
       </c>
-      <c r="AH8" t="s">
-        <v>153</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300217</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>1.65</v>
@@ -1553,7 +1679,7 @@
         <v>67938.37</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1594,8 +1720,23 @@
       <c r="W9">
         <v>-0.7</v>
       </c>
+      <c r="X9">
+        <v>-3.09</v>
+      </c>
+      <c r="Y9">
+        <v>6.13</v>
+      </c>
+      <c r="Z9">
+        <v>-0.33</v>
+      </c>
       <c r="AC9" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1603,22 +1744,25 @@
       <c r="AG9">
         <v>6.707223415374756</v>
       </c>
-      <c r="AH9" t="s">
-        <v>153</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300237</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0.6</v>
@@ -1636,7 +1780,7 @@
         <v>63487.14</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K10">
         <v>11</v>
@@ -1677,8 +1821,23 @@
       <c r="W10">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X10">
+        <v>7.1</v>
+      </c>
+      <c r="Y10">
+        <v>3.95</v>
+      </c>
+      <c r="Z10">
+        <v>16.86</v>
+      </c>
       <c r="AC10" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1686,22 +1845,25 @@
       <c r="AG10">
         <v>2.30040454864502</v>
       </c>
-      <c r="AH10" t="s">
-        <v>153</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300274</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>7.05</v>
@@ -1719,7 +1881,7 @@
         <v>1760054.48</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11">
         <v>7</v>
@@ -1760,8 +1922,23 @@
       <c r="W11">
         <v>0.26</v>
       </c>
+      <c r="X11">
+        <v>-2.49</v>
+      </c>
+      <c r="Y11">
+        <v>141</v>
+      </c>
+      <c r="Z11">
+        <v>2.66</v>
+      </c>
       <c r="AC11" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1769,22 +1946,25 @@
       <c r="AG11">
         <v>6.31920862197876</v>
       </c>
-      <c r="AH11" t="s">
-        <v>153</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300277</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>2.5</v>
@@ -1802,7 +1982,7 @@
         <v>56768.99</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1843,8 +2023,23 @@
       <c r="W12">
         <v>0.05</v>
       </c>
+      <c r="X12">
+        <v>-2.5</v>
+      </c>
+      <c r="Y12">
+        <v>17</v>
+      </c>
+      <c r="Z12">
+        <v>8.970000000000001</v>
+      </c>
       <c r="AC12" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1852,22 +2047,25 @@
       <c r="AG12">
         <v>4.791859149932861</v>
       </c>
-      <c r="AH12" t="s">
-        <v>153</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300290</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>3.06</v>
@@ -1885,7 +2083,7 @@
         <v>115593.11</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1926,8 +2124,23 @@
       <c r="W13">
         <v>0.33</v>
       </c>
+      <c r="X13">
+        <v>0.83</v>
+      </c>
+      <c r="Y13">
+        <v>27.54</v>
+      </c>
+      <c r="Z13">
+        <v>3.46</v>
+      </c>
       <c r="AC13" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1935,22 +2148,25 @@
       <c r="AG13">
         <v>8.501957893371582</v>
       </c>
-      <c r="AH13" t="s">
-        <v>153</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300308</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>14.28</v>
@@ -1968,7 +2184,7 @@
         <v>2778693.43</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K14">
         <v>43</v>
@@ -2009,8 +2225,23 @@
       <c r="W14">
         <v>0.37</v>
       </c>
+      <c r="X14">
+        <v>-4.06</v>
+      </c>
+      <c r="Y14">
+        <v>431.99</v>
+      </c>
+      <c r="Z14">
+        <v>-1.81</v>
+      </c>
       <c r="AC14" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2018,22 +2249,25 @@
       <c r="AG14">
         <v>-5.101676464080811</v>
       </c>
-      <c r="AH14" t="s">
-        <v>153</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300331</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>3.71</v>
@@ -2051,7 +2285,7 @@
         <v>132344.81</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2092,8 +2326,23 @@
       <c r="W15">
         <v>0.29</v>
       </c>
+      <c r="X15">
+        <v>-3.32</v>
+      </c>
+      <c r="Y15">
+        <v>31.3</v>
+      </c>
+      <c r="Z15">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="AC15" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2101,22 +2350,25 @@
       <c r="AG15">
         <v>8.849018096923828</v>
       </c>
-      <c r="AH15" t="s">
-        <v>153</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300394</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>13.54</v>
@@ -2134,7 +2386,7 @@
         <v>1178014.41</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2175,8 +2427,23 @@
       <c r="W16">
         <v>0.83</v>
       </c>
+      <c r="X16">
+        <v>-6.52</v>
+      </c>
+      <c r="Y16">
+        <v>190</v>
+      </c>
+      <c r="Z16">
+        <v>-4.33</v>
+      </c>
       <c r="AC16" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2184,22 +2451,25 @@
       <c r="AG16">
         <v>6.316338062286377</v>
       </c>
-      <c r="AH16" t="s">
-        <v>153</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300409</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>4.75</v>
@@ -2217,7 +2487,7 @@
         <v>324561.38</v>
       </c>
       <c r="J17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K17">
         <v>19</v>
@@ -2258,8 +2528,23 @@
       <c r="W17">
         <v>0.18</v>
       </c>
+      <c r="X17">
+        <v>-1.91</v>
+      </c>
+      <c r="Y17">
+        <v>27.98</v>
+      </c>
+      <c r="Z17">
+        <v>4.75</v>
+      </c>
       <c r="AC17" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2267,22 +2552,25 @@
       <c r="AG17">
         <v>3.754494428634644</v>
       </c>
-      <c r="AH17" t="s">
-        <v>153</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300450</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>2.59</v>
@@ -2300,7 +2588,7 @@
         <v>1412651.11</v>
       </c>
       <c r="J18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -2341,8 +2629,23 @@
       <c r="W18">
         <v>0.15</v>
       </c>
+      <c r="X18">
+        <v>-8.859999999999999</v>
+      </c>
+      <c r="Y18">
+        <v>58.3</v>
+      </c>
+      <c r="Z18">
+        <v>-3.04</v>
+      </c>
       <c r="AC18" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2350,22 +2653,25 @@
       <c r="AG18">
         <v>7.136510372161865</v>
       </c>
-      <c r="AH18" t="s">
-        <v>152</v>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300469</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>4.18</v>
@@ -2383,7 +2689,7 @@
         <v>112295.18</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K19">
         <v>16</v>
@@ -2424,8 +2730,23 @@
       <c r="W19">
         <v>-0.32</v>
       </c>
+      <c r="X19">
+        <v>-3.99</v>
+      </c>
+      <c r="Y19">
+        <v>72.5</v>
+      </c>
+      <c r="Z19">
+        <v>1.05</v>
+      </c>
       <c r="AC19" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2433,22 +2754,25 @@
       <c r="AG19">
         <v>-0.226673811674118</v>
       </c>
-      <c r="AH19" t="s">
-        <v>153</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300475</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -2466,7 +2790,7 @@
         <v>339129.06</v>
       </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2507,8 +2831,23 @@
       <c r="W20">
         <v>1.04</v>
       </c>
+      <c r="X20">
+        <v>14.45</v>
+      </c>
+      <c r="Y20">
+        <v>77.41</v>
+      </c>
+      <c r="Z20">
+        <v>20</v>
+      </c>
       <c r="AC20" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2516,22 +2855,25 @@
       <c r="AG20">
         <v>15.86876964569092</v>
       </c>
-      <c r="AH20" t="s">
-        <v>153</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300476</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>16.28</v>
@@ -2549,7 +2891,7 @@
         <v>2914340.45</v>
       </c>
       <c r="J21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K21">
         <v>67</v>
@@ -2590,8 +2932,23 @@
       <c r="W21">
         <v>0.49</v>
       </c>
+      <c r="X21">
+        <v>0.47</v>
+      </c>
+      <c r="Y21">
+        <v>352.49</v>
+      </c>
+      <c r="Z21">
+        <v>4.29</v>
+      </c>
       <c r="AC21" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2599,22 +2956,25 @@
       <c r="AG21">
         <v>-14.29558849334717</v>
       </c>
-      <c r="AH21" t="s">
-        <v>153</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300491</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>6.12</v>
@@ -2632,7 +2992,7 @@
         <v>84143.59</v>
       </c>
       <c r="J22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22">
         <v>15</v>
@@ -2673,8 +3033,23 @@
       <c r="W22">
         <v>0.18</v>
       </c>
+      <c r="X22">
+        <v>-10.31</v>
+      </c>
+      <c r="Y22">
+        <v>37</v>
+      </c>
+      <c r="Z22">
+        <v>-3.39</v>
+      </c>
       <c r="AC22" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2682,22 +3057,25 @@
       <c r="AG22">
         <v>-0.4068464040756226</v>
       </c>
-      <c r="AH22" t="s">
-        <v>153</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300502</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>13.42</v>
@@ -2715,7 +3093,7 @@
         <v>2771648.51</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2756,8 +3134,23 @@
       <c r="W23">
         <v>0.62</v>
       </c>
+      <c r="X23">
+        <v>-5.77</v>
+      </c>
+      <c r="Y23">
+        <v>365.99</v>
+      </c>
+      <c r="Z23">
+        <v>-3.66</v>
+      </c>
       <c r="AC23" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2765,22 +3158,25 @@
       <c r="AG23">
         <v>-8.094047546386719</v>
       </c>
-      <c r="AH23" t="s">
-        <v>153</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300528</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-11.6</v>
@@ -2798,7 +3194,7 @@
         <v>221152.54</v>
       </c>
       <c r="J24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2839,8 +3235,23 @@
       <c r="W24">
         <v>-2.57</v>
       </c>
+      <c r="X24">
+        <v>12.36</v>
+      </c>
+      <c r="Y24">
+        <v>30.92</v>
+      </c>
+      <c r="Z24">
+        <v>19.38</v>
+      </c>
       <c r="AC24" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2848,22 +3259,25 @@
       <c r="AG24">
         <v>0.8138591051101685</v>
       </c>
-      <c r="AH24" t="s">
-        <v>153</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300539</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0.75</v>
@@ -2881,7 +3295,7 @@
         <v>92464.88</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -2922,8 +3336,23 @@
       <c r="W25">
         <v>-0.43</v>
       </c>
+      <c r="X25">
+        <v>-4.45</v>
+      </c>
+      <c r="Y25">
+        <v>38.75</v>
+      </c>
+      <c r="Z25">
+        <v>-0.87</v>
+      </c>
       <c r="AC25" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2931,22 +3360,25 @@
       <c r="AG25">
         <v>0.9541698694229126</v>
       </c>
-      <c r="AH25" t="s">
-        <v>153</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300568</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-0.75</v>
@@ -2964,7 +3396,7 @@
         <v>198968.88</v>
       </c>
       <c r="J26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -3005,8 +3437,23 @@
       <c r="W26">
         <v>-0.3</v>
       </c>
+      <c r="X26">
+        <v>-2.06</v>
+      </c>
+      <c r="Y26">
+        <v>14.65</v>
+      </c>
+      <c r="Z26">
+        <v>0.76</v>
+      </c>
       <c r="AC26" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3014,22 +3461,25 @@
       <c r="AG26">
         <v>-2.759151458740234</v>
       </c>
-      <c r="AH26" t="s">
-        <v>153</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300618</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -3047,7 +3497,7 @@
         <v>178717.68</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -3088,8 +3538,23 @@
       <c r="W27">
         <v>-0.39</v>
       </c>
+      <c r="X27">
+        <v>-1.02</v>
+      </c>
+      <c r="Y27">
+        <v>56.66</v>
+      </c>
+      <c r="Z27">
+        <v>6.83</v>
+      </c>
       <c r="AC27" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3097,22 +3562,25 @@
       <c r="AG27">
         <v>-1.961314678192139</v>
       </c>
-      <c r="AH27" t="s">
-        <v>153</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300619</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>2.86</v>
@@ -3130,7 +3598,7 @@
         <v>96547.85000000001</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3171,8 +3639,23 @@
       <c r="W28">
         <v>0.03</v>
       </c>
+      <c r="X28">
+        <v>3.83</v>
+      </c>
+      <c r="Y28">
+        <v>40</v>
+      </c>
+      <c r="Z28">
+        <v>7.87</v>
+      </c>
       <c r="AC28" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3180,22 +3663,25 @@
       <c r="AG28">
         <v>0.7326418161392212</v>
       </c>
-      <c r="AH28" t="s">
-        <v>153</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300620</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>8.359999999999999</v>
@@ -3213,7 +3699,7 @@
         <v>290474.85</v>
       </c>
       <c r="J29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3254,8 +3740,23 @@
       <c r="W29">
         <v>0.23</v>
       </c>
+      <c r="X29">
+        <v>-2.06</v>
+      </c>
+      <c r="Y29">
+        <v>101.93</v>
+      </c>
+      <c r="Z29">
+        <v>1.66</v>
+      </c>
       <c r="AC29" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3263,22 +3764,25 @@
       <c r="AG29">
         <v>13.46653842926025</v>
       </c>
-      <c r="AH29" t="s">
-        <v>153</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300680</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>10.98</v>
@@ -3296,7 +3800,7 @@
         <v>123449.96</v>
       </c>
       <c r="J30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3337,8 +3841,23 @@
       <c r="W30">
         <v>0.27</v>
       </c>
+      <c r="X30">
+        <v>5.46</v>
+      </c>
+      <c r="Y30">
+        <v>56.66</v>
+      </c>
+      <c r="Z30">
+        <v>7.8</v>
+      </c>
       <c r="AC30" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3346,22 +3865,25 @@
       <c r="AG30">
         <v>3.180059432983398</v>
       </c>
-      <c r="AH30" t="s">
-        <v>153</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300757</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>4.62</v>
@@ -3379,7 +3901,7 @@
         <v>262143.03</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K31">
         <v>14</v>
@@ -3420,8 +3942,23 @@
       <c r="W31">
         <v>0.19</v>
       </c>
+      <c r="X31">
+        <v>8.83</v>
+      </c>
+      <c r="Y31">
+        <v>303.59</v>
+      </c>
+      <c r="Z31">
+        <v>14.56</v>
+      </c>
       <c r="AC31" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3429,22 +3966,25 @@
       <c r="AG31">
         <v>9.393193244934082</v>
       </c>
-      <c r="AH31" t="s">
-        <v>153</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300763</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>0.97</v>
@@ -3462,7 +4002,7 @@
         <v>292360.01</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -3503,8 +4043,23 @@
       <c r="W32">
         <v>-0.21</v>
       </c>
+      <c r="X32">
+        <v>-2.73</v>
+      </c>
+      <c r="Y32">
+        <v>85.97</v>
+      </c>
+      <c r="Z32">
+        <v>0.77</v>
+      </c>
       <c r="AC32" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3512,22 +4067,25 @@
       <c r="AG32">
         <v>0.6244696378707886</v>
       </c>
-      <c r="AH32" t="s">
-        <v>153</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300790</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>3.23</v>
@@ -3545,7 +4103,7 @@
         <v>129981.58</v>
       </c>
       <c r="J33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K33">
         <v>8</v>
@@ -3586,8 +4144,23 @@
       <c r="W33">
         <v>0.17</v>
       </c>
+      <c r="X33">
+        <v>-1.13</v>
+      </c>
+      <c r="Y33">
+        <v>36.79</v>
+      </c>
+      <c r="Z33">
+        <v>3.63</v>
+      </c>
       <c r="AC33" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3595,22 +4168,25 @@
       <c r="AG33">
         <v>14.10873985290527</v>
       </c>
-      <c r="AH33" t="s">
-        <v>153</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300803</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>9.199999999999999</v>
@@ -3628,7 +4204,7 @@
         <v>988677.02</v>
       </c>
       <c r="J34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K34">
         <v>23</v>
@@ -3669,8 +4245,23 @@
       <c r="W34">
         <v>0.84</v>
       </c>
+      <c r="X34">
+        <v>-2.78</v>
+      </c>
+      <c r="Y34">
+        <v>154.97</v>
+      </c>
+      <c r="Z34">
+        <v>3.28</v>
+      </c>
       <c r="AC34" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3678,22 +4269,25 @@
       <c r="AG34">
         <v>-0.8962730765342712</v>
       </c>
-      <c r="AH34" t="s">
-        <v>153</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300827</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>1.5</v>
@@ -3711,7 +4305,7 @@
         <v>222760.52</v>
       </c>
       <c r="J35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -3752,8 +4346,23 @@
       <c r="W35">
         <v>-0.73</v>
       </c>
+      <c r="X35">
+        <v>1.18</v>
+      </c>
+      <c r="Y35">
+        <v>35.52</v>
+      </c>
+      <c r="Z35">
+        <v>5.09</v>
+      </c>
       <c r="AC35" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3761,22 +4370,25 @@
       <c r="AG35">
         <v>4.778113842010498</v>
       </c>
-      <c r="AH35" t="s">
-        <v>153</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300857</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>7.07</v>
@@ -3794,7 +4406,7 @@
         <v>421160.86</v>
       </c>
       <c r="J36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K36">
         <v>15</v>
@@ -3835,8 +4447,23 @@
       <c r="W36">
         <v>0.11</v>
       </c>
+      <c r="X36">
+        <v>0.91</v>
+      </c>
+      <c r="Y36">
+        <v>139.55</v>
+      </c>
+      <c r="Z36">
+        <v>1.82</v>
+      </c>
       <c r="AC36" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3844,22 +4471,25 @@
       <c r="AG36">
         <v>7.19575023651123</v>
       </c>
-      <c r="AH36" t="s">
-        <v>153</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300990</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>15.73</v>
@@ -3877,7 +4507,7 @@
         <v>98757.14</v>
       </c>
       <c r="J37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3918,8 +4548,23 @@
       <c r="W37">
         <v>-0.19</v>
       </c>
+      <c r="X37">
+        <v>-0.47</v>
+      </c>
+      <c r="Y37">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="Z37">
+        <v>2.26</v>
+      </c>
       <c r="AC37" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3927,22 +4572,25 @@
       <c r="AG37">
         <v>10.33884620666504</v>
       </c>
-      <c r="AH37" t="s">
-        <v>153</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300997</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-3.7</v>
@@ -3960,7 +4608,7 @@
         <v>51702.71</v>
       </c>
       <c r="J38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K38">
         <v>5</v>
@@ -4001,8 +4649,23 @@
       <c r="W38">
         <v>0.24</v>
       </c>
+      <c r="X38">
+        <v>-2.89</v>
+      </c>
+      <c r="Y38">
+        <v>21.4</v>
+      </c>
+      <c r="Z38">
+        <v>1.37</v>
+      </c>
       <c r="AC38" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4010,22 +4673,25 @@
       <c r="AG38">
         <v>3.4688720703125</v>
       </c>
-      <c r="AH38" t="s">
-        <v>153</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301076</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>3.06</v>
@@ -4043,7 +4709,7 @@
         <v>149067.32</v>
       </c>
       <c r="J39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -4084,8 +4750,23 @@
       <c r="W39">
         <v>0.74</v>
       </c>
+      <c r="X39">
+        <v>-4.95</v>
+      </c>
+      <c r="Y39">
+        <v>63.86</v>
+      </c>
+      <c r="Z39">
+        <v>2.62</v>
+      </c>
       <c r="AC39" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4093,22 +4774,25 @@
       <c r="AG39">
         <v>2.857575416564941</v>
       </c>
-      <c r="AH39" t="s">
-        <v>153</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301123</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>19.99</v>
@@ -4126,7 +4810,7 @@
         <v>86641.56</v>
       </c>
       <c r="J40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4167,8 +4851,23 @@
       <c r="W40">
         <v>0.97</v>
       </c>
+      <c r="X40">
+        <v>-2.69</v>
+      </c>
+      <c r="Y40">
+        <v>50.55</v>
+      </c>
+      <c r="Z40">
+        <v>2.83</v>
+      </c>
       <c r="AC40" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4176,22 +4875,25 @@
       <c r="AG40">
         <v>10.12298202514648</v>
       </c>
-      <c r="AH40" t="s">
-        <v>153</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301150</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>6.71</v>
@@ -4209,7 +4911,7 @@
         <v>103105.09</v>
       </c>
       <c r="J41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K41">
         <v>8</v>
@@ -4250,8 +4952,23 @@
       <c r="W41">
         <v>1.4</v>
       </c>
+      <c r="X41">
+        <v>-8.27</v>
+      </c>
+      <c r="Y41">
+        <v>39.92</v>
+      </c>
+      <c r="Z41">
+        <v>0.05</v>
+      </c>
       <c r="AC41" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4259,22 +4976,25 @@
       <c r="AG41">
         <v>3.813117265701294</v>
       </c>
-      <c r="AH41" t="s">
-        <v>152</v>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301238</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-0.62</v>
@@ -4292,7 +5012,7 @@
         <v>77800.36</v>
       </c>
       <c r="J42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4333,8 +5053,23 @@
       <c r="W42">
         <v>-0.05</v>
       </c>
+      <c r="X42">
+        <v>-1.38</v>
+      </c>
+      <c r="Y42">
+        <v>22.75</v>
+      </c>
+      <c r="Z42">
+        <v>0.98</v>
+      </c>
       <c r="AC42" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4342,22 +5077,25 @@
       <c r="AG42">
         <v>8.998625755310059</v>
       </c>
-      <c r="AH42" t="s">
-        <v>153</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301307</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>1.85</v>
@@ -4375,7 +5113,7 @@
         <v>63175.74</v>
       </c>
       <c r="J43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4416,8 +5154,23 @@
       <c r="W43">
         <v>-0.44</v>
       </c>
+      <c r="X43">
+        <v>4.2</v>
+      </c>
+      <c r="Y43">
+        <v>34</v>
+      </c>
+      <c r="Z43">
+        <v>8.210000000000001</v>
+      </c>
       <c r="AC43" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4425,22 +5178,25 @@
       <c r="AG43">
         <v>123.6919631958008</v>
       </c>
-      <c r="AH43" t="s">
-        <v>153</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301377</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>20</v>
@@ -4458,7 +5214,7 @@
         <v>97108.06</v>
       </c>
       <c r="J44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4499,8 +5255,23 @@
       <c r="W44">
         <v>0.13</v>
       </c>
+      <c r="X44">
+        <v>4.81</v>
+      </c>
+      <c r="Y44">
+        <v>93</v>
+      </c>
+      <c r="Z44">
+        <v>8.84</v>
+      </c>
       <c r="AC44" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4508,22 +5279,25 @@
       <c r="AG44">
         <v>6.261985301971436</v>
       </c>
-      <c r="AH44" t="s">
-        <v>152</v>
+      <c r="AH44">
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301398</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>5.21</v>
@@ -4541,7 +5315,7 @@
         <v>85083.55</v>
       </c>
       <c r="J45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4582,8 +5356,23 @@
       <c r="W45">
         <v>0.35</v>
       </c>
+      <c r="X45">
+        <v>-4.97</v>
+      </c>
+      <c r="Y45">
+        <v>53.55</v>
+      </c>
+      <c r="Z45">
+        <v>-2.57</v>
+      </c>
       <c r="AC45" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4591,22 +5380,25 @@
       <c r="AG45">
         <v>-3.544718980789185</v>
       </c>
-      <c r="AH45" t="s">
-        <v>153</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301413</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>4.32</v>
@@ -4624,7 +5416,7 @@
         <v>74765.67999999999</v>
       </c>
       <c r="J46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K46">
         <v>15</v>
@@ -4665,8 +5457,23 @@
       <c r="W46">
         <v>0.42</v>
       </c>
+      <c r="X46">
+        <v>-1.19</v>
+      </c>
+      <c r="Y46">
+        <v>149.67</v>
+      </c>
+      <c r="Z46">
+        <v>3.89</v>
+      </c>
       <c r="AC46" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4674,22 +5481,25 @@
       <c r="AG46">
         <v>1.574025511741638</v>
       </c>
-      <c r="AH46" t="s">
-        <v>153</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301486</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>2.51</v>
@@ -4707,7 +5517,7 @@
         <v>143887.45</v>
       </c>
       <c r="J47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K47">
         <v>5</v>
@@ -4748,8 +5558,23 @@
       <c r="W47">
         <v>0.9</v>
       </c>
+      <c r="X47">
+        <v>-3.31</v>
+      </c>
+      <c r="Y47">
+        <v>105.86</v>
+      </c>
+      <c r="Z47">
+        <v>1.24</v>
+      </c>
       <c r="AC47" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -4757,22 +5582,25 @@
       <c r="AG47">
         <v>-7.686235904693604</v>
       </c>
-      <c r="AH47" t="s">
-        <v>152</v>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301488</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>7.13</v>
@@ -4790,7 +5618,7 @@
         <v>107861.21</v>
       </c>
       <c r="J48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K48">
         <v>12</v>
@@ -4831,8 +5659,23 @@
       <c r="W48">
         <v>-0.12</v>
       </c>
+      <c r="X48">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>168.86</v>
+      </c>
+      <c r="Z48">
+        <v>14.85</v>
+      </c>
       <c r="AC48" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4840,22 +5683,25 @@
       <c r="AG48">
         <v>3.585797071456909</v>
       </c>
-      <c r="AH48" t="s">
-        <v>153</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301489</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-1.28</v>
@@ -4873,7 +5719,7 @@
         <v>134367.09</v>
       </c>
       <c r="J49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -4914,8 +5760,23 @@
       <c r="W49">
         <v>0.48</v>
       </c>
+      <c r="X49">
+        <v>-3.2</v>
+      </c>
+      <c r="Y49">
+        <v>235</v>
+      </c>
+      <c r="Z49">
+        <v>3.84</v>
+      </c>
       <c r="AC49" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4923,22 +5784,25 @@
       <c r="AG49">
         <v>7.856588363647461</v>
       </c>
-      <c r="AH49" t="s">
-        <v>153</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301538</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>7.34</v>
@@ -4956,7 +5820,7 @@
         <v>63931.64</v>
       </c>
       <c r="J50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K50">
         <v>4</v>
@@ -4997,8 +5861,23 @@
       <c r="W50">
         <v>0.33</v>
       </c>
+      <c r="X50">
+        <v>-4.42</v>
+      </c>
+      <c r="Y50">
+        <v>98.2</v>
+      </c>
+      <c r="Z50">
+        <v>-0.1</v>
+      </c>
       <c r="AC50" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5006,22 +5885,25 @@
       <c r="AG50">
         <v>2.795750379562378</v>
       </c>
-      <c r="AH50" t="s">
-        <v>153</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301617</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-3.99</v>
@@ -5039,7 +5921,7 @@
         <v>84633.52</v>
       </c>
       <c r="J51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K51">
         <v>15</v>
@@ -5080,8 +5962,23 @@
       <c r="W51">
         <v>-2.44</v>
       </c>
+      <c r="X51">
+        <v>-2.01</v>
+      </c>
+      <c r="Y51">
+        <v>86.97</v>
+      </c>
+      <c r="Z51">
+        <v>3.54</v>
+      </c>
       <c r="AC51" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5089,22 +5986,25 @@
       <c r="AG51">
         <v>1.010745525360107</v>
       </c>
-      <c r="AH51" t="s">
-        <v>153</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688005</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>1.01</v>
@@ -5122,7 +6022,7 @@
         <v>116331.11</v>
       </c>
       <c r="J52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5163,8 +6063,23 @@
       <c r="W52">
         <v>0.12</v>
       </c>
+      <c r="X52">
+        <v>1.44</v>
+      </c>
+      <c r="Y52">
+        <v>29.95</v>
+      </c>
+      <c r="Z52">
+        <v>2.96</v>
+      </c>
       <c r="AC52" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>1</v>
@@ -5172,22 +6087,25 @@
       <c r="AG52">
         <v>-2.74656081199646</v>
       </c>
-      <c r="AH52" t="s">
-        <v>152</v>
+      <c r="AH52">
+        <v>1</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688006</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-3.36</v>
@@ -5205,7 +6123,7 @@
         <v>151484.57</v>
       </c>
       <c r="J53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K53">
         <v>9</v>
@@ -5246,8 +6164,23 @@
       <c r="W53">
         <v>-0.21</v>
       </c>
+      <c r="X53">
+        <v>-6.2</v>
+      </c>
+      <c r="Y53">
+        <v>39.6</v>
+      </c>
+      <c r="Z53">
+        <v>-1</v>
+      </c>
       <c r="AC53" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5255,22 +6188,25 @@
       <c r="AG53">
         <v>1.591552138328552</v>
       </c>
-      <c r="AH53" t="s">
-        <v>153</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688041</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>20</v>
@@ -5288,7 +6224,7 @@
         <v>1599697</v>
       </c>
       <c r="J54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5329,8 +6265,23 @@
       <c r="W54">
         <v>0.51</v>
       </c>
+      <c r="X54">
+        <v>-0.37</v>
+      </c>
+      <c r="Y54">
+        <v>233.33</v>
+      </c>
+      <c r="Z54">
+        <v>5.66</v>
+      </c>
       <c r="AC54" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5338,22 +6289,25 @@
       <c r="AG54">
         <v>-16.99240303039551</v>
       </c>
-      <c r="AH54" t="s">
-        <v>153</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688116</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>1.5</v>
@@ -5371,7 +6325,7 @@
         <v>91289.67</v>
       </c>
       <c r="J55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K55">
         <v>5</v>
@@ -5412,8 +6366,23 @@
       <c r="W55">
         <v>-0.3</v>
       </c>
+      <c r="X55">
+        <v>-2.06</v>
+      </c>
+      <c r="Y55">
+        <v>56.86</v>
+      </c>
+      <c r="Z55">
+        <v>1.21</v>
+      </c>
       <c r="AC55" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5421,22 +6390,25 @@
       <c r="AG55">
         <v>5.04736852645874</v>
       </c>
-      <c r="AH55" t="s">
-        <v>153</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688141</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>11.03</v>
@@ -5454,7 +6426,7 @@
         <v>112080.74</v>
       </c>
       <c r="J56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K56">
         <v>7</v>
@@ -5495,8 +6467,23 @@
       <c r="W56">
         <v>-0.41</v>
       </c>
+      <c r="X56">
+        <v>4.19</v>
+      </c>
+      <c r="Y56">
+        <v>54.75</v>
+      </c>
+      <c r="Z56">
+        <v>6.62</v>
+      </c>
       <c r="AC56" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5504,22 +6491,25 @@
       <c r="AG56">
         <v>7.437194347381592</v>
       </c>
-      <c r="AH56" t="s">
-        <v>153</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688147</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>0.27</v>
@@ -5537,7 +6527,7 @@
         <v>75323.08</v>
       </c>
       <c r="J57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K57">
         <v>19</v>
@@ -5578,8 +6568,23 @@
       <c r="W57">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X57">
+        <v>-1.79</v>
+      </c>
+      <c r="Y57">
+        <v>45.54</v>
+      </c>
+      <c r="Z57">
+        <v>0.91</v>
+      </c>
       <c r="AC57" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5587,22 +6592,25 @@
       <c r="AG57">
         <v>3.255523920059204</v>
       </c>
-      <c r="AH57" t="s">
-        <v>153</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688155</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>3.26</v>
@@ -5620,7 +6628,7 @@
         <v>52046.05</v>
       </c>
       <c r="J58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K58">
         <v>10</v>
@@ -5661,8 +6669,23 @@
       <c r="W58">
         <v>0.03</v>
       </c>
+      <c r="X58">
+        <v>-1.75</v>
+      </c>
+      <c r="Y58">
+        <v>78.14</v>
+      </c>
+      <c r="Z58">
+        <v>-0.19</v>
+      </c>
       <c r="AC58" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5670,22 +6693,25 @@
       <c r="AG58">
         <v>62.74150848388672</v>
       </c>
-      <c r="AH58" t="s">
-        <v>153</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688167</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>20</v>
@@ -5703,7 +6729,7 @@
         <v>129225.59</v>
       </c>
       <c r="J59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K59">
         <v>5</v>
@@ -5744,8 +6770,23 @@
       <c r="W59">
         <v>0.92</v>
       </c>
+      <c r="X59">
+        <v>9</v>
+      </c>
+      <c r="Y59">
+        <v>168.88</v>
+      </c>
+      <c r="Z59">
+        <v>16.5</v>
+      </c>
       <c r="AC59" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5753,22 +6794,25 @@
       <c r="AG59">
         <v>10.19714832305908</v>
       </c>
-      <c r="AH59" t="s">
-        <v>153</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688195</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>20</v>
@@ -5786,7 +6830,7 @@
         <v>181243.08</v>
       </c>
       <c r="J60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K60">
         <v>19</v>
@@ -5827,8 +6871,23 @@
       <c r="W60">
         <v>1.31</v>
       </c>
+      <c r="X60">
+        <v>1.53</v>
+      </c>
+      <c r="Y60">
+        <v>112.5</v>
+      </c>
+      <c r="Z60">
+        <v>10.9</v>
+      </c>
       <c r="AC60" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5836,22 +6895,25 @@
       <c r="AG60">
         <v>6.146474838256836</v>
       </c>
-      <c r="AH60" t="s">
-        <v>153</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688202</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>1.65</v>
@@ -5869,7 +6931,7 @@
         <v>110623.45</v>
       </c>
       <c r="J61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -5910,8 +6972,23 @@
       <c r="W61">
         <v>-0.38</v>
       </c>
+      <c r="X61">
+        <v>1.93</v>
+      </c>
+      <c r="Y61">
+        <v>81.88</v>
+      </c>
+      <c r="Z61">
+        <v>6.12</v>
+      </c>
       <c r="AC61" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5919,22 +6996,25 @@
       <c r="AG61">
         <v>-3.209416151046753</v>
       </c>
-      <c r="AH61" t="s">
-        <v>153</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688228</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>5.86</v>
@@ -5952,7 +7032,7 @@
         <v>72106.55</v>
       </c>
       <c r="J62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -5993,8 +7073,23 @@
       <c r="W62">
         <v>-0.24</v>
       </c>
+      <c r="X62">
+        <v>14.13</v>
+      </c>
+      <c r="Y62">
+        <v>168.66</v>
+      </c>
+      <c r="Z62">
+        <v>19.62</v>
+      </c>
       <c r="AC62" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6002,22 +7097,25 @@
       <c r="AG62">
         <v>-17.38061141967773</v>
       </c>
-      <c r="AH62" t="s">
-        <v>153</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688234</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>10.01</v>
@@ -6035,7 +7133,7 @@
         <v>236632.09</v>
       </c>
       <c r="J63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6076,8 +7174,23 @@
       <c r="W63">
         <v>-0.44</v>
       </c>
+      <c r="X63">
+        <v>0.8</v>
+      </c>
+      <c r="Y63">
+        <v>99.88</v>
+      </c>
+      <c r="Z63">
+        <v>10.99</v>
+      </c>
       <c r="AC63" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>1</v>
@@ -6085,22 +7198,25 @@
       <c r="AG63">
         <v>38.54886245727539</v>
       </c>
-      <c r="AH63" t="s">
-        <v>153</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688256</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>8.960000000000001</v>
@@ -6118,7 +7234,7 @@
         <v>2599686.14</v>
       </c>
       <c r="J64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -6159,8 +7275,23 @@
       <c r="W64">
         <v>0.03</v>
       </c>
+      <c r="X64">
+        <v>7.28</v>
+      </c>
+      <c r="Y64">
+        <v>1522.22</v>
+      </c>
+      <c r="Z64">
+        <v>9.75</v>
+      </c>
       <c r="AC64" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6168,22 +7299,25 @@
       <c r="AG64">
         <v>-11.17278480529785</v>
       </c>
-      <c r="AH64" t="s">
-        <v>153</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688331</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>6.81</v>
@@ -6201,7 +7335,7 @@
         <v>159364.44</v>
       </c>
       <c r="J65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -6242,8 +7376,23 @@
       <c r="W65">
         <v>0.1</v>
       </c>
+      <c r="X65">
+        <v>-2.51</v>
+      </c>
+      <c r="Y65">
+        <v>113</v>
+      </c>
+      <c r="Z65">
+        <v>2.57</v>
+      </c>
       <c r="AC65" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>1</v>
@@ -6251,22 +7400,25 @@
       <c r="AG65">
         <v>5.059061527252197</v>
       </c>
-      <c r="AH65" t="s">
-        <v>152</v>
+      <c r="AH65">
+        <v>1</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688353</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>4.17</v>
@@ -6284,7 +7436,7 @@
         <v>62094.14</v>
       </c>
       <c r="J66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6325,8 +7477,23 @@
       <c r="W66">
         <v>0.25</v>
       </c>
+      <c r="X66">
+        <v>-4.41</v>
+      </c>
+      <c r="Y66">
+        <v>46.4</v>
+      </c>
+      <c r="Z66">
+        <v>-1.09</v>
+      </c>
       <c r="AC66" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6334,22 +7501,25 @@
       <c r="AG66">
         <v>2.233288049697876</v>
       </c>
-      <c r="AH66" t="s">
-        <v>153</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688388</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>2.05</v>
@@ -6367,7 +7537,7 @@
         <v>308696.96</v>
       </c>
       <c r="J67" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K67">
         <v>8</v>
@@ -6408,8 +7578,23 @@
       <c r="W67">
         <v>-1.5</v>
       </c>
+      <c r="X67">
+        <v>-4.21</v>
+      </c>
+      <c r="Y67">
+        <v>34.9</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
       <c r="AC67" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6417,22 +7602,25 @@
       <c r="AG67">
         <v>-9.724922180175781</v>
       </c>
-      <c r="AH67" t="s">
-        <v>153</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688411</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>6.72</v>
@@ -6450,7 +7638,7 @@
         <v>78460.38</v>
       </c>
       <c r="J68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K68">
         <v>8</v>
@@ -6491,8 +7679,23 @@
       <c r="W68">
         <v>-0.5</v>
       </c>
+      <c r="X68">
+        <v>2.76</v>
+      </c>
+      <c r="Y68">
+        <v>187.7</v>
+      </c>
+      <c r="Z68">
+        <v>5.69</v>
+      </c>
       <c r="AC68" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6500,22 +7703,25 @@
       <c r="AG68">
         <v>6.428014755249023</v>
       </c>
-      <c r="AH68" t="s">
-        <v>153</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688498</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>15.65</v>
@@ -6533,7 +7739,7 @@
         <v>212075.47</v>
       </c>
       <c r="J69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6574,8 +7780,23 @@
       <c r="W69">
         <v>0.27</v>
       </c>
+      <c r="X69">
+        <v>-3.43</v>
+      </c>
+      <c r="Y69">
+        <v>385</v>
+      </c>
+      <c r="Z69">
+        <v>-0.52</v>
+      </c>
       <c r="AC69" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6583,22 +7804,25 @@
       <c r="AG69">
         <v>5.860899925231934</v>
       </c>
-      <c r="AH69" t="s">
-        <v>153</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688499</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-1.54</v>
@@ -6616,7 +7840,7 @@
         <v>133496</v>
       </c>
       <c r="J70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K70">
         <v>5</v>
@@ -6657,8 +7881,23 @@
       <c r="W70">
         <v>-0.74</v>
       </c>
+      <c r="X70">
+        <v>-3.7</v>
+      </c>
+      <c r="Y70">
+        <v>76.86</v>
+      </c>
+      <c r="Z70">
+        <v>1.12</v>
+      </c>
       <c r="AC70" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6666,22 +7905,25 @@
       <c r="AG70">
         <v>8.098987579345703</v>
       </c>
-      <c r="AH70" t="s">
-        <v>153</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688503</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>12.79</v>
@@ -6699,7 +7941,7 @@
         <v>212773.09</v>
       </c>
       <c r="J71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -6740,8 +7982,23 @@
       <c r="W71">
         <v>-0.06</v>
       </c>
+      <c r="X71">
+        <v>-6.64</v>
+      </c>
+      <c r="Y71">
+        <v>71.11</v>
+      </c>
+      <c r="Z71">
+        <v>3.81</v>
+      </c>
       <c r="AC71" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6749,22 +8006,25 @@
       <c r="AG71">
         <v>2.582636833190918</v>
       </c>
-      <c r="AH71" t="s">
-        <v>153</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688559</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>1.69</v>
@@ -6782,7 +8042,7 @@
         <v>80902.75999999999</v>
       </c>
       <c r="J72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K72">
         <v>5</v>
@@ -6823,8 +8083,23 @@
       <c r="W72">
         <v>-0.22</v>
       </c>
+      <c r="X72">
+        <v>-2.96</v>
+      </c>
+      <c r="Y72">
+        <v>43.09</v>
+      </c>
+      <c r="Z72">
+        <v>3.56</v>
+      </c>
       <c r="AC72" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6832,22 +8107,25 @@
       <c r="AG72">
         <v>2.377821445465088</v>
       </c>
-      <c r="AH72" t="s">
-        <v>153</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688630</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>10.87</v>
@@ -6865,7 +8143,7 @@
         <v>202171.01</v>
       </c>
       <c r="J73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -6906,8 +8184,23 @@
       <c r="W73">
         <v>0.39</v>
       </c>
+      <c r="X73">
+        <v>-0.92</v>
+      </c>
+      <c r="Y73">
+        <v>155.58</v>
+      </c>
+      <c r="Z73">
+        <v>2.36</v>
+      </c>
       <c r="AC73" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6915,22 +8208,25 @@
       <c r="AG73">
         <v>1.552287101745605</v>
       </c>
-      <c r="AH73" t="s">
-        <v>153</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688981</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>6.13</v>
@@ -6948,7 +8244,7 @@
         <v>1577609.11</v>
       </c>
       <c r="J74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -6989,8 +8285,23 @@
       <c r="W74">
         <v>-0.01</v>
       </c>
+      <c r="X74">
+        <v>-1.69</v>
+      </c>
+      <c r="Y74">
+        <v>112.49</v>
+      </c>
+      <c r="Z74">
+        <v>2</v>
+      </c>
       <c r="AC74" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -6998,8 +8309,11 @@
       <c r="AG74">
         <v>6.728147506713867</v>
       </c>
-      <c r="AH74" t="s">
-        <v>153</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
